--- a/medicine/Pharmacie/Johannes_Burchart_V/Johannes_Burchart_V.xlsx
+++ b/medicine/Pharmacie/Johannes_Burchart_V/Johannes_Burchart_V.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Johnannes Burchard V (Burchard von Béllawary de Sycava) (Tallinn, 1683 - ib., janvier 1738) est un médecin et un pharmacien germano-balte du gouvernement d'Estonie.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Johannes IV, pharmacien de Tallinn. Il étudie à Stockholm où il devient docteur en médecine en 1710. Il reprend la gestion de la Raeapteek au décès de sa mère, Catherine von Cahl, quelques jours après la capitulation face à l'armée russe lors de la Grande guerre du Nord et commence sa carrière dans un Tallinn ravagé par la Peste Noire, sans nourriture ni eau potable. Doué de compétences commerciales, médicinales et pharmacologiques, il fournit alors l'armée russe en médicaments. On note toutefois qu'il n'a toujours pas reçu de paiement en 1714. Au 20 décembre 1716, son salaire est de 100 thalers.
 Il devient Médecin de la Ville (Stadtphysikus) de Tallinn le 20 décembre 1716 et médecin de l'Amirauté (Doctor und Stadt und Admiralistadt Physicus). Il semble que son salaire ne lui soit donné que très irrégulièrement et s'en plaint au Conseil en 1725. Le Conseil lui répond que sa légitime demande sera satisfaite dans la mesure du possible ("sein Lohn nach Möglichkeit zu befriedigen"). Il achète en 1718 un "jardin" (Garten) dans le Cisternpforte et acquiert en 1721 Lacksberg (Johannisthal) de Daniel von Wistinghausen pour 391 thalers. On trouve également l'achat d'une maison en 1736.
@@ -550,10 +564,12 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit notamment :
-Dissertatio medica inauguralis, De haereditaria dispositione ad varios affectus, La Halle, 1706 [1].</t>
+Dissertatio medica inauguralis, De haereditaria dispositione ad varios affectus, La Halle, 1706 .</t>
         </is>
       </c>
     </row>
@@ -581,10 +597,12 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pharmaciens Burchard
-"Dispositions posthumes concernant les biens indivisibles du médecin de la ville de Tallinn et du physicien de l'Amirauté, le Dr Johann Burchart", 1741 [1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pharmaciens Burchard
+"Dispositions posthumes concernant les biens indivisibles du médecin de la ville de Tallinn et du physicien de l'Amirauté, le Dr Johann Burchart", 1741 </t>
         </is>
       </c>
     </row>
